--- a/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.470060832543025</v>
+        <v>9.470060832543048</v>
       </c>
       <c r="D2">
-        <v>21.49398360909152</v>
+        <v>21.49398360909143</v>
       </c>
       <c r="E2">
-        <v>20.1398109886501</v>
+        <v>20.13981098865013</v>
       </c>
       <c r="F2">
-        <v>120.6662481843876</v>
+        <v>120.666248184387</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>91.88407625836629</v>
+        <v>91.88407625836585</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.2768342160305</v>
+        <v>19.27683421603048</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.127412435840483</v>
+        <v>8.127412435840297</v>
       </c>
       <c r="D3">
-        <v>18.33844969218427</v>
+        <v>18.3384496921842</v>
       </c>
       <c r="E3">
-        <v>17.14902218625039</v>
+        <v>17.14902218625044</v>
       </c>
       <c r="F3">
-        <v>103.5030551568777</v>
+        <v>103.503055156878</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78.77032202840468</v>
+        <v>78.77032202840495</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.46162093686768</v>
+        <v>16.46162093686766</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.490517040848729</v>
+        <v>7.490517040848715</v>
       </c>
       <c r="D4">
-        <v>16.851681566521</v>
+        <v>16.85168156652136</v>
       </c>
       <c r="E4">
-        <v>15.74917924396632</v>
+        <v>15.74917924396646</v>
       </c>
       <c r="F4">
-        <v>95.33116087506758</v>
+        <v>95.33116087506897</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72.52746308810669</v>
+        <v>72.52746308810781</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.14074097073807</v>
+        <v>15.14074097073818</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.248448747601034</v>
+        <v>7.248448747601184</v>
       </c>
       <c r="D5">
-        <v>16.28810412547112</v>
+        <v>16.2881041254712</v>
       </c>
       <c r="E5">
-        <v>15.21963402982322</v>
+        <v>15.21963402982323</v>
       </c>
       <c r="F5">
-        <v>92.22472354515561</v>
+        <v>92.22472354515602</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>70.15394924130602</v>
+        <v>70.15394924130631</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.64062255056883</v>
+        <v>14.64062255056884</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.208960318348533</v>
+        <v>7.208960318348441</v>
       </c>
       <c r="D6">
-        <v>16.19624407885733</v>
+        <v>16.19624407885728</v>
       </c>
       <c r="E6">
-        <v>15.13336896274835</v>
+        <v>15.13336896274842</v>
       </c>
       <c r="F6">
-        <v>91.71804321701055</v>
+        <v>91.71804321701077</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>69.76678170886076</v>
+        <v>69.76678170886093</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.55912969304915</v>
+        <v>14.55912969304918</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.487198922222158</v>
+        <v>7.48719892222177</v>
       </c>
       <c r="D7">
-        <v>16.84395094174901</v>
+        <v>16.84395094174859</v>
       </c>
       <c r="E7">
-        <v>15.7419118455907</v>
+        <v>15.74191184559055</v>
       </c>
       <c r="F7">
-        <v>95.28857687929373</v>
+        <v>95.28857687929249</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>72.49492822655702</v>
+        <v>72.49492822655604</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.13387899148222</v>
+        <v>15.13387899148199</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D8">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E8">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F8">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D9">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E9">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F9">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D10">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E10">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F10">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D11">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E11">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F11">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D12">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E12">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F12">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D13">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E13">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F13">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D14">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E14">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F14">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D15">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E15">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F15">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D16">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E16">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F16">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D17">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E17">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F17">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D18">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E18">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F18">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D19">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E19">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F19">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D20">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E20">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F20">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D21">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E21">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F21">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D22">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E22">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F22">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D23">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E23">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F23">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D24">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E24">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F24">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.931155119193638</v>
+        <v>8.931155119193846</v>
       </c>
       <c r="D25">
-        <v>20.22364116516181</v>
+        <v>20.22364116516193</v>
       </c>
       <c r="E25">
-        <v>18.93181722405723</v>
+        <v>18.93181722405715</v>
       </c>
       <c r="F25">
-        <v>113.7943142998272</v>
+        <v>113.7943142998275</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>86.63244378370996</v>
+        <v>86.6324437837101</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.14102695420864</v>
+        <v>18.14102695420865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.470060832543048</v>
+        <v>9.470060832543025</v>
       </c>
       <c r="D2">
-        <v>21.49398360909143</v>
+        <v>21.49398360909152</v>
       </c>
       <c r="E2">
-        <v>20.13981098865013</v>
+        <v>20.1398109886501</v>
       </c>
       <c r="F2">
-        <v>120.666248184387</v>
+        <v>120.6662481843876</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>91.88407625836585</v>
+        <v>91.88407625836629</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.27683421603048</v>
+        <v>19.2768342160305</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.127412435840297</v>
+        <v>8.127412435840483</v>
       </c>
       <c r="D3">
-        <v>18.3384496921842</v>
+        <v>18.33844969218427</v>
       </c>
       <c r="E3">
-        <v>17.14902218625044</v>
+        <v>17.14902218625039</v>
       </c>
       <c r="F3">
-        <v>103.503055156878</v>
+        <v>103.5030551568777</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78.77032202840495</v>
+        <v>78.77032202840468</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.46162093686766</v>
+        <v>16.46162093686768</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.490517040848715</v>
+        <v>7.490517040848729</v>
       </c>
       <c r="D4">
-        <v>16.85168156652136</v>
+        <v>16.851681566521</v>
       </c>
       <c r="E4">
-        <v>15.74917924396646</v>
+        <v>15.74917924396632</v>
       </c>
       <c r="F4">
-        <v>95.33116087506897</v>
+        <v>95.33116087506758</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72.52746308810781</v>
+        <v>72.52746308810669</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.14074097073818</v>
+        <v>15.14074097073807</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.248448747601184</v>
+        <v>7.248448747601034</v>
       </c>
       <c r="D5">
-        <v>16.2881041254712</v>
+        <v>16.28810412547112</v>
       </c>
       <c r="E5">
-        <v>15.21963402982323</v>
+        <v>15.21963402982322</v>
       </c>
       <c r="F5">
-        <v>92.22472354515602</v>
+        <v>92.22472354515561</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>70.15394924130631</v>
+        <v>70.15394924130602</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.64062255056884</v>
+        <v>14.64062255056883</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.208960318348441</v>
+        <v>7.208960318348533</v>
       </c>
       <c r="D6">
-        <v>16.19624407885728</v>
+        <v>16.19624407885733</v>
       </c>
       <c r="E6">
-        <v>15.13336896274842</v>
+        <v>15.13336896274835</v>
       </c>
       <c r="F6">
-        <v>91.71804321701077</v>
+        <v>91.71804321701055</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>69.76678170886093</v>
+        <v>69.76678170886076</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.55912969304918</v>
+        <v>14.55912969304915</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.48719892222177</v>
+        <v>7.487198922222158</v>
       </c>
       <c r="D7">
-        <v>16.84395094174859</v>
+        <v>16.84395094174901</v>
       </c>
       <c r="E7">
-        <v>15.74191184559055</v>
+        <v>15.7419118455907</v>
       </c>
       <c r="F7">
-        <v>95.28857687929249</v>
+        <v>95.28857687929373</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>72.49492822655604</v>
+        <v>72.49492822655702</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.13387899148199</v>
+        <v>15.13387899148222</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D8">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E8">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F8">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D9">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E9">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F9">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D10">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E10">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F10">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D11">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E11">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F11">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D12">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E12">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F12">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D13">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E13">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F13">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D14">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E14">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F14">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D15">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E15">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F15">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D16">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E16">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F16">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D17">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E17">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F17">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D18">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E18">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F18">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D19">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E19">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F19">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D20">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E20">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F20">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D21">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E21">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F21">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D22">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E22">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F22">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D23">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E23">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F23">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D24">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E24">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F24">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.931155119193846</v>
+        <v>8.931155119193638</v>
       </c>
       <c r="D25">
-        <v>20.22364116516193</v>
+        <v>20.22364116516181</v>
       </c>
       <c r="E25">
-        <v>18.93181722405715</v>
+        <v>18.93181722405723</v>
       </c>
       <c r="F25">
-        <v>113.7943142998275</v>
+        <v>113.7943142998272</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>86.6324437837101</v>
+        <v>86.63244378370996</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.14102695420865</v>
+        <v>18.14102695420864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,701 +406,776 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.470060832543025</v>
+        <v>9.288875746677633</v>
       </c>
       <c r="D2">
-        <v>21.49398360909152</v>
+        <v>21.13814526167187</v>
       </c>
       <c r="E2">
-        <v>20.1398109886501</v>
+        <v>19.87592227526403</v>
       </c>
       <c r="F2">
-        <v>120.6662481843876</v>
+        <v>118.9553199305576</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.589210114361385</v>
       </c>
       <c r="H2">
-        <v>91.88407625836629</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>19.2768342160305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>90.56500158900521</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>19.00834223019115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.127412435840483</v>
+        <v>8.001844159756304</v>
       </c>
       <c r="D3">
-        <v>18.33844969218427</v>
+        <v>18.1219746018125</v>
       </c>
       <c r="E3">
-        <v>17.14902218625039</v>
+        <v>17.01321745235053</v>
       </c>
       <c r="F3">
-        <v>103.5030551568777</v>
+        <v>102.5279494248503</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.707436103795882</v>
       </c>
       <c r="H3">
-        <v>78.77032202840468</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>16.46162093686768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>78.01125901454748</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>16.31340322632553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.490517040848729</v>
+        <v>7.377695489444287</v>
       </c>
       <c r="D4">
-        <v>16.851681566521</v>
+        <v>16.66947384246047</v>
       </c>
       <c r="E4">
-        <v>15.74917924396632</v>
+        <v>15.64225947268335</v>
       </c>
       <c r="F4">
-        <v>95.33116087506758</v>
+        <v>94.54203840388175</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.760516061224674</v>
       </c>
       <c r="H4">
-        <v>72.52746308810669</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>15.14074097073807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>71.908584303311</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>15.01985687341175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.248448747601034</v>
+        <v>7.139468421111268</v>
       </c>
       <c r="D5">
-        <v>16.28810412547112</v>
+        <v>16.11670512168299</v>
       </c>
       <c r="E5">
-        <v>15.21963402982322</v>
+        <v>15.12136945866536</v>
       </c>
       <c r="F5">
-        <v>92.22472354515561</v>
+        <v>91.49518435067733</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.780061660475318</v>
       </c>
       <c r="H5">
-        <v>70.15394924130602</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>14.64062255056883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>69.57973772037407</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>14.52796288611769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.208960318348533</v>
+        <v>7.100566239634546</v>
       </c>
       <c r="D6">
-        <v>16.19624407885733</v>
+        <v>16.02652278735368</v>
       </c>
       <c r="E6">
-        <v>15.13336896274835</v>
+        <v>15.03642353416894</v>
       </c>
       <c r="F6">
-        <v>91.71804321701055</v>
+        <v>90.99780263167986</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.783216374968574</v>
       </c>
       <c r="H6">
-        <v>69.76678170886076</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>14.55912969304915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>69.19952796675835</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>14.44772529085737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.487198922222158</v>
+        <v>7.374433114552565</v>
       </c>
       <c r="D7">
-        <v>16.84395094174901</v>
+        <v>16.66189801426006</v>
       </c>
       <c r="E7">
-        <v>15.7419118455907</v>
+        <v>15.63511783493232</v>
       </c>
       <c r="F7">
-        <v>95.28857687929373</v>
+        <v>94.50030402587188</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.760786370165208</v>
       </c>
       <c r="H7">
-        <v>72.49492822655702</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>15.13387899148222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>71.87668732948612</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>15.01311426072462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D8">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E8">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F8">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H8">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D9">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E9">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F9">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H9">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D10">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E10">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F10">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H10">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D11">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E11">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F11">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H11">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D12">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E12">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F12">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H12">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D13">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E13">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F13">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H13">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D14">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E14">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F14">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H14">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D15">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E15">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F15">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H15">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D16">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E16">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F16">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H16">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D17">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E17">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F17">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H17">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D18">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E18">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F18">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H18">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D19">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E19">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F19">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H19">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D20">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E20">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F20">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H20">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D21">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E21">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F21">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H21">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D22">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E22">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F22">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H22">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D23">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E23">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F23">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H23">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D24">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E24">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F24">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H24">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>18.14102695420864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>17.93754294204406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.931155119193638</v>
+        <v>8.779951807000828</v>
       </c>
       <c r="D25">
-        <v>20.22364116516181</v>
+        <v>19.94185990358177</v>
       </c>
       <c r="E25">
-        <v>18.93181722405723</v>
+        <v>18.73727938333928</v>
       </c>
       <c r="F25">
-        <v>113.7943142998272</v>
+        <v>112.4719490824322</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.637393896068766</v>
       </c>
       <c r="H25">
-        <v>86.63244378370996</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>18.14102695420864</v>
+        <v>85.60974068524281</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>17.93754294204406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,773 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>9.288875746677633</v>
+        <v>9.478617091512898</v>
       </c>
       <c r="D2">
-        <v>21.13814526167187</v>
+        <v>19.75648544779675</v>
       </c>
       <c r="E2">
-        <v>19.87592227526403</v>
+        <v>41.03169075053042</v>
       </c>
       <c r="F2">
-        <v>118.9553199305576</v>
+        <v>112.7288103467287</v>
       </c>
       <c r="G2">
-        <v>1.589210114361385</v>
+        <v>1.589253014479628</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>90.56500158900521</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>99.78114586852568</v>
+      </c>
       <c r="L2">
-        <v>19.00834223019115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>8.005494106225452</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>8.001844159756304</v>
+        <v>8.117245152557627</v>
       </c>
       <c r="D3">
-        <v>18.1219746018125</v>
+        <v>16.40054276967354</v>
       </c>
       <c r="E3">
-        <v>17.01321745235053</v>
+        <v>34.22337105619167</v>
       </c>
       <c r="F3">
-        <v>102.5279494248503</v>
+        <v>94.92401741568294</v>
       </c>
       <c r="G3">
-        <v>1.707436103795882</v>
+        <v>1.722352452540684</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>78.01125901454748</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>85.84940629553506</v>
+      </c>
       <c r="L3">
-        <v>16.31340322632553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>9.073690314737089</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>7.377695489444287</v>
+        <v>7.483920063745026</v>
       </c>
       <c r="D4">
-        <v>16.66947384246047</v>
+        <v>14.92699734458484</v>
       </c>
       <c r="E4">
-        <v>15.64225947268335</v>
+        <v>31.27482311269963</v>
       </c>
       <c r="F4">
-        <v>94.54203840388175</v>
+        <v>86.9403221382087</v>
       </c>
       <c r="G4">
-        <v>1.760516061224674</v>
+        <v>1.777849868859811</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>71.908584303311</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>79.33820163258051</v>
+      </c>
       <c r="L4">
-        <v>15.01985687341175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>9.518423187401371</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>7.139468421111268</v>
+        <v>7.243051539892516</v>
       </c>
       <c r="D5">
-        <v>16.11670512168299</v>
+        <v>14.37869745480425</v>
       </c>
       <c r="E5">
-        <v>15.12136945866536</v>
+        <v>30.17798838355944</v>
       </c>
       <c r="F5">
-        <v>91.49518435067733</v>
+        <v>83.94991318804523</v>
       </c>
       <c r="G5">
-        <v>1.780061660475318</v>
+        <v>1.798019821549248</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>69.57973772037407</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>76.85351393751264</v>
+      </c>
       <c r="L5">
-        <v>14.52796288611769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>9.680149112749605</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>7.100566239634546</v>
+        <v>7.203738319363741</v>
       </c>
       <c r="D6">
-        <v>16.02652278735368</v>
+        <v>14.28980677602366</v>
       </c>
       <c r="E6">
-        <v>15.03642353416894</v>
+        <v>30.0000886717862</v>
       </c>
       <c r="F6">
-        <v>90.99780263167986</v>
+        <v>83.46421987421463</v>
       </c>
       <c r="G6">
-        <v>1.783216374968574</v>
+        <v>1.801264873488497</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>69.19952796675835</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>76.44750383715494</v>
+      </c>
       <c r="L6">
-        <v>14.44772529085737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>9.706175164235166</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>7.374433114552565</v>
+        <v>7.480619662582496</v>
       </c>
       <c r="D7">
-        <v>16.66189801426006</v>
+        <v>14.91944113734246</v>
       </c>
       <c r="E7">
-        <v>15.63511783493232</v>
+        <v>31.25971127989238</v>
       </c>
       <c r="F7">
-        <v>94.50030402587188</v>
+        <v>86.89917742929877</v>
       </c>
       <c r="G7">
-        <v>1.760786370165208</v>
+        <v>1.778129623726615</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>71.87668732948612</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>79.30418923810959</v>
+      </c>
       <c r="L7">
-        <v>15.01311426072462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>9.52066585232388</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D8">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E8">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F8">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G8">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L8">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D9">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E9">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F9">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G9">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L9">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D10">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E10">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F10">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G10">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L10">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D11">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E11">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F11">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G11">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L11">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D12">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E12">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F12">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G12">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L12">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D13">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E13">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F13">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G13">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L13">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D14">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E14">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F14">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G14">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L14">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D15">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E15">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F15">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G15">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L15">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D16">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E16">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F16">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G16">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L16">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D17">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E17">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F17">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G17">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L17">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D18">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E18">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F18">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G18">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L18">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D19">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E19">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F19">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G19">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L19">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D20">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E20">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F20">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G20">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L20">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D21">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E21">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F21">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G21">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
+      <c r="K21">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L21">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D22">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E22">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F22">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G22">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
+      <c r="K22">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L22">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D23">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E23">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F23">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G23">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L23">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D24">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E24">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F24">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G24">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
+      <c r="K24">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L24">
-        <v>17.93754294204406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>8.779951807000828</v>
+        <v>8.921491895205337</v>
       </c>
       <c r="D25">
-        <v>19.94185990358177</v>
+        <v>18.34743548363043</v>
       </c>
       <c r="E25">
-        <v>18.73727938333928</v>
+        <v>38.1458169816596</v>
       </c>
       <c r="F25">
-        <v>112.4719490824322</v>
+        <v>105.327303723172</v>
       </c>
       <c r="G25">
-        <v>1.637393896068766</v>
+        <v>1.646233535741083</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>85.60974068524281</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
+      <c r="K25">
+        <v>94.08375962442044</v>
+      </c>
       <c r="L25">
-        <v>17.93754294204406</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>8.463503361647962</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.928349306536842</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20.29639185120877</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.71474239375414</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>97.24221052020241</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.55441544481542</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.749823462246587</v>
+      </c>
+      <c r="D3">
+        <v>19.19423032058383</v>
+      </c>
+      <c r="E3">
+        <v>15.6608979587409</v>
+      </c>
+      <c r="F3">
+        <v>91.82476559339926</v>
+      </c>
+      <c r="G3">
+        <v>3.58597814299693</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18.40031508502701</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.642425872294808</v>
+      </c>
+      <c r="D4">
+        <v>18.51214447045755</v>
+      </c>
+      <c r="E4">
+        <v>15.00190026052062</v>
+      </c>
+      <c r="F4">
+        <v>88.46228545311696</v>
+      </c>
+      <c r="G4">
+        <v>3.605732078410621</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.02485520896362</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.599228673722709</v>
+      </c>
+      <c r="D5">
+        <v>18.2329908812032</v>
+      </c>
+      <c r="E5">
+        <v>14.73041804766861</v>
+      </c>
+      <c r="F5">
+        <v>87.08368989401811</v>
+      </c>
+      <c r="G5">
+        <v>3.613887617270069</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.86990355188116</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4.592090563235466</v>
+      </c>
+      <c r="D6">
+        <v>18.18657116238791</v>
+      </c>
+      <c r="E6">
+        <v>14.6851648543744</v>
+      </c>
+      <c r="F6">
+        <v>86.85429951711392</v>
+      </c>
+      <c r="G6">
+        <v>3.615248533974945</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.84406337566597</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.641840980367569</v>
+      </c>
+      <c r="D7">
+        <v>18.50838430381302</v>
+      </c>
+      <c r="E7">
+        <v>14.99825069489203</v>
+      </c>
+      <c r="F7">
+        <v>88.44372581043439</v>
+      </c>
+      <c r="G7">
+        <v>3.605841624706232</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.02277304766463</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.866337092428803</v>
+      </c>
+      <c r="D8">
+        <v>19.91754100910823</v>
+      </c>
+      <c r="E8">
+        <v>16.3538667619719</v>
+      </c>
+      <c r="F8">
+        <v>95.38208889547789</v>
+      </c>
+      <c r="G8">
+        <v>3.565227906670709</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.79364780656866</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5.324221734732019</v>
+      </c>
+      <c r="D9">
+        <v>22.63653560158268</v>
+      </c>
+      <c r="E9">
+        <v>19.13894374348223</v>
+      </c>
+      <c r="F9">
+        <v>108.6920411870864</v>
+      </c>
+      <c r="G9">
+        <v>3.487960174983647</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>20.22736832029966</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5.672483101186433</v>
+      </c>
+      <c r="D10">
+        <v>24.61208697857012</v>
+      </c>
+      <c r="E10">
+        <v>21.17962370047426</v>
+      </c>
+      <c r="F10">
+        <v>118.3137673906934</v>
+      </c>
+      <c r="G10">
+        <v>3.431669795184587</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>21.22223697909766</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.834094072224967</v>
+      </c>
+      <c r="D11">
+        <v>25.50942059502371</v>
+      </c>
+      <c r="E11">
+        <v>22.08803563656688</v>
+      </c>
+      <c r="F11">
+        <v>122.6730052504844</v>
+      </c>
+      <c r="G11">
+        <v>3.40589813916398</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>21.66018057919896</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.895831728298813</v>
+      </c>
+      <c r="D12">
+        <v>25.8494831486816</v>
+      </c>
+      <c r="E12">
+        <v>22.4298263369352</v>
+      </c>
+      <c r="F12">
+        <v>124.3233667265092</v>
+      </c>
+      <c r="G12">
+        <v>3.396087828836633</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>21.82377585681918</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.882509823172334</v>
+      </c>
+      <c r="D13">
+        <v>25.77622393933655</v>
+      </c>
+      <c r="E13">
+        <v>22.35630184955166</v>
+      </c>
+      <c r="F13">
+        <v>123.967906482398</v>
+      </c>
+      <c r="G13">
+        <v>3.39820342430914</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>21.78864458690796</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.839161889023188</v>
+      </c>
+      <c r="D14">
+        <v>25.53738930791195</v>
+      </c>
+      <c r="E14">
+        <v>22.11619494681434</v>
+      </c>
+      <c r="F14">
+        <v>122.8087741548441</v>
+      </c>
+      <c r="G14">
+        <v>3.405092240350339</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>21.67368539489593</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.812683155830049</v>
+      </c>
+      <c r="D15">
+        <v>25.39114658423568</v>
+      </c>
+      <c r="E15">
+        <v>21.9688569797416</v>
+      </c>
+      <c r="F15">
+        <v>122.0987987392258</v>
+      </c>
+      <c r="G15">
+        <v>3.409304273505287</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21.60297336126115</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.661991798135768</v>
+      </c>
+      <c r="D16">
+        <v>24.55345231886164</v>
+      </c>
+      <c r="E16">
+        <v>21.1199097493597</v>
+      </c>
+      <c r="F16">
+        <v>118.0286922358216</v>
+      </c>
+      <c r="G16">
+        <v>3.433348487801321</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>21.19330956972086</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.570411948615738</v>
+      </c>
+      <c r="D17">
+        <v>24.03948340489306</v>
+      </c>
+      <c r="E17">
+        <v>20.59444084663185</v>
+      </c>
+      <c r="F17">
+        <v>115.528582821767</v>
+      </c>
+      <c r="G17">
+        <v>3.44803866445461</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>20.93814219015166</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5.518030993173498</v>
+      </c>
+      <c r="D18">
+        <v>23.74369847830637</v>
+      </c>
+      <c r="E18">
+        <v>20.29028595371076</v>
+      </c>
+      <c r="F18">
+        <v>114.0887461388426</v>
+      </c>
+      <c r="G18">
+        <v>3.456474459993808</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>20.79000725568141</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5.500344086005818</v>
+      </c>
+      <c r="D19">
+        <v>23.64351129322842</v>
+      </c>
+      <c r="E19">
+        <v>20.18695663517335</v>
+      </c>
+      <c r="F19">
+        <v>113.6008720989528</v>
+      </c>
+      <c r="G19">
+        <v>3.459329092298393</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>20.73962067985786</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.580129925536919</v>
+      </c>
+      <c r="D20">
+        <v>24.09421039644502</v>
+      </c>
+      <c r="E20">
+        <v>20.65057215061906</v>
+      </c>
+      <c r="F20">
+        <v>115.7949008280869</v>
+      </c>
+      <c r="G20">
+        <v>3.446476460503126</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>20.96544799483449</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.851878799503208</v>
+      </c>
+      <c r="D21">
+        <v>25.60752928151225</v>
+      </c>
+      <c r="E21">
+        <v>22.18677415131327</v>
+      </c>
+      <c r="F21">
+        <v>123.1492289248951</v>
+      </c>
+      <c r="G21">
+        <v>3.403070461507527</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>21.70751365554064</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6.032685581193294</v>
+      </c>
+      <c r="D22">
+        <v>26.59843064359007</v>
+      </c>
+      <c r="E22">
+        <v>23.17831974472002</v>
+      </c>
+      <c r="F22">
+        <v>127.9796083969743</v>
+      </c>
+      <c r="G22">
+        <v>3.374387135012742</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>22.17935961385674</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.935857412223462</v>
+      </c>
+      <c r="D23">
+        <v>26.06920319693427</v>
+      </c>
+      <c r="E23">
+        <v>22.65000089288631</v>
+      </c>
+      <c r="F23">
+        <v>125.3892247109176</v>
+      </c>
+      <c r="G23">
+        <v>3.389735328949447</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>21.92877110911181</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.575735594382137</v>
+      </c>
+      <c r="D24">
+        <v>24.06946928208778</v>
+      </c>
+      <c r="E24">
+        <v>20.62520163944038</v>
+      </c>
+      <c r="F24">
+        <v>115.6745063680355</v>
+      </c>
+      <c r="G24">
+        <v>3.447182761380789</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>20.95310750188666</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5.198405793318457</v>
+      </c>
+      <c r="D25">
+        <v>21.90560128611369</v>
+      </c>
+      <c r="E25">
+        <v>18.36603129323322</v>
+      </c>
+      <c r="F25">
+        <v>105.1224905665565</v>
+      </c>
+      <c r="G25">
+        <v>3.508699974321709</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>19.84905939529494</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,37 +430,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.99875506544171</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.860753468150704</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>29.06102712217097</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25.12284679924722</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>35.49868108354454</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.061359211089233</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.851632923846973</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.10691617380962</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.4985994192463</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>21.90131321233133</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,120 +468,1230 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.86888069075014</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3.753485734525596</v>
+      </c>
+      <c r="D3">
+        <v>3.818277697907772</v>
+      </c>
+      <c r="E3">
+        <v>27.1467376902736</v>
+      </c>
+      <c r="F3">
+        <v>24.05693809734298</v>
+      </c>
+      <c r="G3">
+        <v>33.79631121649739</v>
+      </c>
+      <c r="H3">
+        <v>2.789431717785859</v>
+      </c>
+      <c r="I3">
+        <v>3.614026542803549</v>
+      </c>
+      <c r="J3">
+        <v>10.8737899968338</v>
+      </c>
+      <c r="K3">
+        <v>18.82505804302049</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>20.45924446821398</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.99338523476516</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3.592481096241322</v>
+      </c>
+      <c r="D4">
+        <v>3.790852608037701</v>
+      </c>
+      <c r="E4">
+        <v>25.90581975564533</v>
+      </c>
+      <c r="F4">
+        <v>23.38850901517178</v>
+      </c>
+      <c r="G4">
+        <v>32.72048392601035</v>
+      </c>
+      <c r="H4">
+        <v>2.616979342222569</v>
+      </c>
+      <c r="I4">
+        <v>3.463774093967991</v>
+      </c>
+      <c r="J4">
+        <v>10.73168504855155</v>
+      </c>
+      <c r="K4">
+        <v>18.40280618547788</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>19.51983318818098</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.072014149796</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.51389128581918</v>
+      </c>
+      <c r="D5">
+        <v>3.780124312399488</v>
+      </c>
+      <c r="E5">
+        <v>25.38314291448279</v>
+      </c>
+      <c r="F5">
+        <v>23.1007647652299</v>
+      </c>
+      <c r="G5">
+        <v>32.25265913416698</v>
+      </c>
+      <c r="H5">
+        <v>2.545007548281215</v>
+      </c>
+      <c r="I5">
+        <v>3.401256342999492</v>
+      </c>
+      <c r="J5">
+        <v>10.66989394511798</v>
+      </c>
+      <c r="K5">
+        <v>18.21617456637117</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>19.1183053686735</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.1052629983922</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3.488082059128117</v>
+      </c>
+      <c r="D6">
+        <v>3.779286877639999</v>
+      </c>
+      <c r="E6">
+        <v>25.29480836621589</v>
+      </c>
+      <c r="F6">
+        <v>23.03792122561539</v>
+      </c>
+      <c r="G6">
+        <v>32.14740691079776</v>
+      </c>
+      <c r="H6">
+        <v>2.532621978661175</v>
+      </c>
+      <c r="I6">
+        <v>3.390767013327652</v>
+      </c>
+      <c r="J6">
+        <v>10.65454852790951</v>
+      </c>
+      <c r="K6">
+        <v>18.16970626700892</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>19.04458830324752</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.11163240886601</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3.55766259555788</v>
+      </c>
+      <c r="D7">
+        <v>3.793356713309195</v>
+      </c>
+      <c r="E7">
+        <v>25.89737209076009</v>
+      </c>
+      <c r="F7">
+        <v>23.34454866043923</v>
+      </c>
+      <c r="G7">
+        <v>32.6412175043214</v>
+      </c>
+      <c r="H7">
+        <v>2.615070805431069</v>
+      </c>
+      <c r="I7">
+        <v>3.462539012513825</v>
+      </c>
+      <c r="J7">
+        <v>10.71699682247798</v>
+      </c>
+      <c r="K7">
+        <v>18.35877173546728</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>19.49787095673907</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.07476305956776</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.874658605290423</v>
+      </c>
+      <c r="D8">
+        <v>3.849963024388382</v>
+      </c>
+      <c r="E8">
+        <v>28.41266812452769</v>
+      </c>
+      <c r="F8">
+        <v>24.70786390155911</v>
+      </c>
+      <c r="G8">
+        <v>34.82694667854681</v>
+      </c>
+      <c r="H8">
+        <v>2.967506581480541</v>
+      </c>
+      <c r="I8">
+        <v>3.769668494049496</v>
+      </c>
+      <c r="J8">
+        <v>11.00842187518562</v>
+      </c>
+      <c r="K8">
+        <v>19.2153758080961</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>21.39488834141925</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.91473599532066</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4.469596119634106</v>
+      </c>
+      <c r="D9">
+        <v>3.945330195119406</v>
+      </c>
+      <c r="E9">
+        <v>32.8313919453215</v>
+      </c>
+      <c r="F9">
+        <v>27.3258308610948</v>
+      </c>
+      <c r="G9">
+        <v>38.97515262789278</v>
+      </c>
+      <c r="H9">
+        <v>3.618159579369323</v>
+      </c>
+      <c r="I9">
+        <v>4.340287731162742</v>
+      </c>
+      <c r="J9">
+        <v>11.61095638824925</v>
+      </c>
+      <c r="K9">
+        <v>20.88960387259544</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>24.71594578796106</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.61374756088634</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4.861416011756641</v>
+      </c>
+      <c r="D10">
+        <v>4.028030150130611</v>
+      </c>
+      <c r="E10">
+        <v>34.88776046728119</v>
+      </c>
+      <c r="F10">
+        <v>28.97046855888287</v>
+      </c>
+      <c r="G10">
+        <v>41.50653297150613</v>
+      </c>
+      <c r="H10">
+        <v>4.033708749728985</v>
+      </c>
+      <c r="I10">
+        <v>4.729508721109759</v>
+      </c>
+      <c r="J10">
+        <v>11.98578359239983</v>
+      </c>
+      <c r="K10">
+        <v>21.92189083834855</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>26.8234184904905</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.42493660391527</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.136825629418864</v>
+      </c>
+      <c r="D11">
+        <v>4.242084949886316</v>
+      </c>
+      <c r="E11">
+        <v>28.28061504794305</v>
+      </c>
+      <c r="F11">
+        <v>28.14577505622463</v>
+      </c>
+      <c r="G11">
+        <v>39.85131145973394</v>
+      </c>
+      <c r="H11">
+        <v>4.406722854646313</v>
+      </c>
+      <c r="I11">
+        <v>4.810087401370674</v>
+      </c>
+      <c r="J11">
+        <v>11.57943524240679</v>
+      </c>
+      <c r="K11">
+        <v>21.24343333333796</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>27.10916979945952</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.53784004597147</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.352056867872171</v>
+      </c>
+      <c r="D12">
+        <v>4.420333135516568</v>
+      </c>
+      <c r="E12">
+        <v>22.31052091536265</v>
+      </c>
+      <c r="F12">
+        <v>27.14207559243917</v>
+      </c>
+      <c r="G12">
+        <v>37.9953321113157</v>
+      </c>
+      <c r="H12">
+        <v>5.227609982987358</v>
+      </c>
+      <c r="I12">
+        <v>4.8066986610819</v>
+      </c>
+      <c r="J12">
+        <v>11.16908649200382</v>
+      </c>
+      <c r="K12">
+        <v>20.49925873377056</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>26.94414734217385</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.6873422235617</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.499416923529711</v>
+      </c>
+      <c r="D13">
+        <v>4.582899462514272</v>
+      </c>
+      <c r="E13">
+        <v>16.34622258416303</v>
+      </c>
+      <c r="F13">
+        <v>25.86048051642209</v>
+      </c>
+      <c r="G13">
+        <v>35.72617966358106</v>
+      </c>
+      <c r="H13">
+        <v>6.258099943474931</v>
+      </c>
+      <c r="I13">
+        <v>4.738480748606502</v>
+      </c>
+      <c r="J13">
+        <v>10.70557359011545</v>
+      </c>
+      <c r="K13">
+        <v>19.58786845060898</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>26.3994034921284</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.87039094462914</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.567473371822057</v>
+      </c>
+      <c r="D14">
+        <v>4.691775766255128</v>
+      </c>
+      <c r="E14">
+        <v>12.22088160894864</v>
+      </c>
+      <c r="F14">
+        <v>24.81412594635012</v>
+      </c>
+      <c r="G14">
+        <v>33.90647140260997</v>
+      </c>
+      <c r="H14">
+        <v>7.06247786669686</v>
+      </c>
+      <c r="I14">
+        <v>4.66272162672569</v>
+      </c>
+      <c r="J14">
+        <v>10.351943375603</v>
+      </c>
+      <c r="K14">
+        <v>18.85660821701126</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25.83624257496693</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.01384123338607</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.555589040695827</v>
+      </c>
+      <c r="D15">
+        <v>4.714417971708487</v>
+      </c>
+      <c r="E15">
+        <v>11.2216895927654</v>
+      </c>
+      <c r="F15">
+        <v>24.48581165852477</v>
+      </c>
+      <c r="G15">
+        <v>33.34825713033489</v>
+      </c>
+      <c r="H15">
+        <v>7.247037798960912</v>
+      </c>
+      <c r="I15">
+        <v>4.629405791001105</v>
+      </c>
+      <c r="J15">
+        <v>10.25078870333116</v>
+      </c>
+      <c r="K15">
+        <v>18.62909252374547</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>25.60990630704945</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.05448425512164</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.361683324715958</v>
+      </c>
+      <c r="D16">
+        <v>4.64637134678044</v>
+      </c>
+      <c r="E16">
+        <v>11.06649402937852</v>
+      </c>
+      <c r="F16">
+        <v>23.95478870924619</v>
+      </c>
+      <c r="G16">
+        <v>32.55536803713587</v>
+      </c>
+      <c r="H16">
+        <v>6.962954250641549</v>
+      </c>
+      <c r="I16">
+        <v>4.479989373475319</v>
+      </c>
+      <c r="J16">
+        <v>10.16484917995243</v>
+      </c>
+      <c r="K16">
+        <v>18.31309291048316</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.81110721329299</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.08036957784113</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.168159127051696</v>
+      </c>
+      <c r="D17">
+        <v>4.53441770338526</v>
+      </c>
+      <c r="E17">
+        <v>13.192635350012</v>
+      </c>
+      <c r="F17">
+        <v>24.12302444636708</v>
+      </c>
+      <c r="G17">
+        <v>32.952100594603</v>
+      </c>
+      <c r="H17">
+        <v>6.264793716528269</v>
+      </c>
+      <c r="I17">
+        <v>4.404396368575652</v>
+      </c>
+      <c r="J17">
+        <v>10.29024011170987</v>
+      </c>
+      <c r="K17">
+        <v>18.46938799145248</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>24.4983863510132</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.02687195188923</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4.988573822344113</v>
+      </c>
+      <c r="D18">
+        <v>4.375337329244928</v>
+      </c>
+      <c r="E18">
+        <v>17.80235562264753</v>
+      </c>
+      <c r="F18">
+        <v>24.93902530683047</v>
+      </c>
+      <c r="G18">
+        <v>34.46915306781557</v>
+      </c>
+      <c r="H18">
+        <v>5.21591552704737</v>
+      </c>
+      <c r="I18">
+        <v>4.388030501643481</v>
+      </c>
+      <c r="J18">
+        <v>10.61938944256884</v>
+      </c>
+      <c r="K18">
+        <v>19.07861573597825</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>24.59557107364902</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.90224662105324</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4.793686287776111</v>
+      </c>
+      <c r="D19">
+        <v>4.209797776752318</v>
+      </c>
+      <c r="E19">
+        <v>24.12050065063222</v>
+      </c>
+      <c r="F19">
+        <v>26.13721267652087</v>
+      </c>
+      <c r="G19">
+        <v>36.63513347968674</v>
+      </c>
+      <c r="H19">
+        <v>4.218254858378172</v>
+      </c>
+      <c r="I19">
+        <v>4.429276228724042</v>
+      </c>
+      <c r="J19">
+        <v>11.06270928254806</v>
+      </c>
+      <c r="K19">
+        <v>19.9324459175525</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>24.99408568034746</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.74715694491353</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4.680104803423038</v>
+      </c>
+      <c r="D20">
+        <v>4.016425231885678</v>
+      </c>
+      <c r="E20">
+        <v>34.3157974379456</v>
+      </c>
+      <c r="F20">
+        <v>28.43107262970448</v>
+      </c>
+      <c r="G20">
+        <v>40.65070200809765</v>
+      </c>
+      <c r="H20">
+        <v>3.920762073580603</v>
+      </c>
+      <c r="I20">
+        <v>4.627640948872078</v>
+      </c>
+      <c r="J20">
+        <v>11.84480401807819</v>
+      </c>
+      <c r="K20">
+        <v>21.53614120620859</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>26.24268030762765</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.48420633888297</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>4.964229511779005</v>
+      </c>
+      <c r="D21">
+        <v>4.048028349784129</v>
+      </c>
+      <c r="E21">
+        <v>37.17256749163134</v>
+      </c>
+      <c r="F21">
+        <v>29.96122037094697</v>
+      </c>
+      <c r="G21">
+        <v>43.06946686266303</v>
+      </c>
+      <c r="H21">
+        <v>4.294054873478329</v>
+      </c>
+      <c r="I21">
+        <v>4.938845442468391</v>
+      </c>
+      <c r="J21">
+        <v>12.24221128797846</v>
+      </c>
+      <c r="K21">
+        <v>22.53212250650337</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>27.90120870950194</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.31117862576315</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.180790691262081</v>
+      </c>
+      <c r="D22">
+        <v>4.072956745611278</v>
+      </c>
+      <c r="E22">
+        <v>38.53123793561451</v>
+      </c>
+      <c r="F22">
+        <v>30.89372533017161</v>
+      </c>
+      <c r="G22">
+        <v>44.52689967646806</v>
+      </c>
+      <c r="H22">
+        <v>4.515263886037016</v>
+      </c>
+      <c r="I22">
+        <v>5.133991555042693</v>
+      </c>
+      <c r="J22">
+        <v>12.48486032177224</v>
+      </c>
+      <c r="K22">
+        <v>23.15103963868009</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>28.91899752313101</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.20579724352877</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.095031620281308</v>
+      </c>
+      <c r="D23">
+        <v>4.056423174452382</v>
+      </c>
+      <c r="E23">
+        <v>37.81255912153786</v>
+      </c>
+      <c r="F23">
+        <v>30.43552807113079</v>
+      </c>
+      <c r="G23">
+        <v>43.81929111208003</v>
+      </c>
+      <c r="H23">
+        <v>4.398519985370952</v>
+      </c>
+      <c r="I23">
+        <v>5.030180450053868</v>
+      </c>
+      <c r="J23">
+        <v>12.36983891804232</v>
+      </c>
+      <c r="K23">
+        <v>22.86261026551959</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>28.3943717611936</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.25790296774537</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4.710345042395855</v>
+      </c>
+      <c r="D24">
+        <v>3.996436264544461</v>
+      </c>
+      <c r="E24">
+        <v>34.97980180267079</v>
+      </c>
+      <c r="F24">
+        <v>28.6065511798946</v>
+      </c>
+      <c r="G24">
+        <v>40.96952785291501</v>
+      </c>
+      <c r="H24">
+        <v>3.947698078033171</v>
+      </c>
+      <c r="I24">
+        <v>4.631228335450207</v>
+      </c>
+      <c r="J24">
+        <v>11.91249417217517</v>
+      </c>
+      <c r="K24">
+        <v>21.68517342154578</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>26.29509795928718</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.46591099314585</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4.265663182280586</v>
+      </c>
+      <c r="D25">
+        <v>3.925710954351</v>
+      </c>
+      <c r="E25">
+        <v>31.68823284625805</v>
+      </c>
+      <c r="F25">
+        <v>26.56773326076862</v>
+      </c>
+      <c r="G25">
+        <v>37.76707198271902</v>
+      </c>
+      <c r="H25">
+        <v>3.444834037191021</v>
+      </c>
+      <c r="I25">
+        <v>4.188629892704892</v>
+      </c>
+      <c r="J25">
+        <v>11.42373534909416</v>
+      </c>
+      <c r="K25">
+        <v>20.37735929696147</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>23.83738863817953</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.69847091192814</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.99875506544171</v>
+        <v>2.738400685219307</v>
       </c>
       <c r="D2">
-        <v>3.860753468150704</v>
+        <v>4.030221989234663</v>
       </c>
       <c r="E2">
-        <v>29.06102712217097</v>
+        <v>28.97271100761231</v>
       </c>
       <c r="F2">
-        <v>25.12284679924722</v>
+        <v>23.46006793466609</v>
       </c>
       <c r="G2">
-        <v>35.49868108354454</v>
+        <v>31.97085831448788</v>
       </c>
       <c r="H2">
-        <v>3.061359211089233</v>
+        <v>3.003548311669256</v>
       </c>
       <c r="I2">
-        <v>3.851632923846973</v>
+        <v>3.741128199793631</v>
       </c>
       <c r="J2">
-        <v>11.10691617380962</v>
+        <v>11.03596640161319</v>
       </c>
       <c r="K2">
-        <v>19.4985994192463</v>
+        <v>17.74112460300112</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.44925915217395</v>
       </c>
       <c r="M2">
-        <v>21.90131321233133</v>
+        <v>11.28138123243334</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>21.19687347111194</v>
       </c>
       <c r="P2">
-        <v>11.86888069075014</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.02549930935896</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.753485734525596</v>
+        <v>2.550619577375208</v>
       </c>
       <c r="D3">
-        <v>3.818277697907772</v>
+        <v>3.950104144413499</v>
       </c>
       <c r="E3">
-        <v>27.1467376902736</v>
+        <v>27.08214058991664</v>
       </c>
       <c r="F3">
-        <v>24.05693809734298</v>
+        <v>22.5845328197896</v>
       </c>
       <c r="G3">
-        <v>33.79631121649739</v>
+        <v>30.59675554180569</v>
       </c>
       <c r="H3">
-        <v>2.789431717785859</v>
+        <v>2.747396305747954</v>
       </c>
       <c r="I3">
-        <v>3.614026542803549</v>
+        <v>3.543205666435533</v>
       </c>
       <c r="J3">
-        <v>10.8737899968338</v>
+        <v>10.84441135410193</v>
       </c>
       <c r="K3">
-        <v>18.82505804302049</v>
+        <v>17.26304826743573</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.31583810905805</v>
       </c>
       <c r="M3">
-        <v>20.45924446821398</v>
+        <v>10.62284470057889</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>19.83941255253712</v>
       </c>
       <c r="P3">
-        <v>11.99338523476516</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.10921345248049</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.592481096241322</v>
+        <v>2.431823808721004</v>
       </c>
       <c r="D4">
-        <v>3.790852608037701</v>
+        <v>3.899388612662263</v>
       </c>
       <c r="E4">
-        <v>25.90581975564533</v>
+        <v>25.85603628612053</v>
       </c>
       <c r="F4">
-        <v>23.38850901517178</v>
+        <v>22.03600334154028</v>
       </c>
       <c r="G4">
-        <v>32.72048392601035</v>
+        <v>29.73264951320743</v>
       </c>
       <c r="H4">
-        <v>2.616979342222569</v>
+        <v>2.584769476466685</v>
       </c>
       <c r="I4">
-        <v>3.463774093967991</v>
+        <v>3.418001642407094</v>
       </c>
       <c r="J4">
-        <v>10.73168504855155</v>
+        <v>10.72539130592804</v>
       </c>
       <c r="K4">
-        <v>18.40280618547788</v>
+        <v>16.96290021713093</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.22617357890201</v>
       </c>
       <c r="M4">
-        <v>19.51983318818098</v>
+        <v>10.22257406889041</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.95464994643084</v>
       </c>
       <c r="P4">
-        <v>12.072014149796</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.1635378708716</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.51389128581918</v>
+        <v>2.37718144859387</v>
       </c>
       <c r="D5">
-        <v>3.780124312399488</v>
+        <v>3.879368134305881</v>
       </c>
       <c r="E5">
-        <v>25.38314291448279</v>
+        <v>25.3395421205099</v>
       </c>
       <c r="F5">
-        <v>23.1007647652299</v>
+        <v>21.79859861726486</v>
       </c>
       <c r="G5">
-        <v>32.25265913416698</v>
+        <v>29.35480584696716</v>
       </c>
       <c r="H5">
-        <v>2.545007548281215</v>
+        <v>2.516878010071363</v>
       </c>
       <c r="I5">
-        <v>3.401256342999492</v>
+        <v>3.366180551299565</v>
       </c>
       <c r="J5">
-        <v>10.66989394511798</v>
+        <v>10.67276352699645</v>
       </c>
       <c r="K5">
-        <v>18.21617456637117</v>
+        <v>16.82757625834684</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.17885503073188</v>
       </c>
       <c r="M5">
-        <v>19.1183053686735</v>
+        <v>10.052458933388</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.57638758150836</v>
       </c>
       <c r="P5">
-        <v>12.1052629983922</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.18721414323685</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.488082059128117</v>
+        <v>2.361694476372656</v>
       </c>
       <c r="D6">
-        <v>3.779286877639999</v>
+        <v>3.877275467615954</v>
       </c>
       <c r="E6">
-        <v>25.29480836621589</v>
+        <v>25.25231388763433</v>
       </c>
       <c r="F6">
-        <v>23.03792122561539</v>
+        <v>21.74514094602763</v>
       </c>
       <c r="G6">
-        <v>32.14740691079776</v>
+        <v>29.26619319354866</v>
       </c>
       <c r="H6">
-        <v>2.532621978661175</v>
+        <v>2.505217261304467</v>
       </c>
       <c r="I6">
-        <v>3.390767013327652</v>
+        <v>3.357894148305372</v>
       </c>
       <c r="J6">
-        <v>10.65454852790951</v>
+        <v>10.65936122713811</v>
       </c>
       <c r="K6">
-        <v>18.16970626700892</v>
+        <v>16.79101742403768</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.16011842511888</v>
       </c>
       <c r="M6">
-        <v>19.04458830324752</v>
+        <v>10.01361217615301</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.50694088108508</v>
       </c>
       <c r="P6">
-        <v>12.11163240886601</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.19219690013823</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.55766259555788</v>
+        <v>2.416895041477208</v>
       </c>
       <c r="D7">
-        <v>3.793356713309195</v>
+        <v>3.904631622966241</v>
       </c>
       <c r="E7">
-        <v>25.89737209076009</v>
+        <v>25.84715757802949</v>
       </c>
       <c r="F7">
-        <v>23.34454866043923</v>
+        <v>21.97252430914885</v>
       </c>
       <c r="G7">
-        <v>32.6412175043214</v>
+        <v>29.7465394895174</v>
       </c>
       <c r="H7">
-        <v>2.615070805431069</v>
+        <v>2.582571734097519</v>
       </c>
       <c r="I7">
-        <v>3.462539012513825</v>
+        <v>3.417220792836621</v>
       </c>
       <c r="J7">
-        <v>10.71699682247798</v>
+        <v>10.65673221412417</v>
       </c>
       <c r="K7">
-        <v>18.35877173546728</v>
+        <v>16.9083816073502</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.18544733922216</v>
       </c>
       <c r="M7">
-        <v>19.49787095673907</v>
+        <v>10.17944840420621</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.92450335050973</v>
       </c>
       <c r="P7">
-        <v>12.07476305956776</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.16839248401923</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.874658605290423</v>
+        <v>2.662498554497707</v>
       </c>
       <c r="D8">
-        <v>3.849963024388382</v>
+        <v>4.014532653505043</v>
       </c>
       <c r="E8">
-        <v>28.41266812452769</v>
+        <v>28.33056733524831</v>
       </c>
       <c r="F8">
-        <v>24.70786390155911</v>
+        <v>23.04098732613071</v>
       </c>
       <c r="G8">
-        <v>34.82694667854681</v>
+        <v>31.69235099264605</v>
       </c>
       <c r="H8">
-        <v>2.967506581480541</v>
+        <v>2.913822461506786</v>
       </c>
       <c r="I8">
-        <v>3.769668494049496</v>
+        <v>3.671672254996969</v>
       </c>
       <c r="J8">
-        <v>11.00842187518562</v>
+        <v>10.77474382104217</v>
       </c>
       <c r="K8">
-        <v>19.2153758080961</v>
+        <v>17.48193068824208</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.33404832853203</v>
       </c>
       <c r="M8">
-        <v>21.39488834141925</v>
+        <v>10.97794419676156</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>20.69121214029625</v>
       </c>
       <c r="P8">
-        <v>11.91473599532066</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.06407668704471</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.469596119634106</v>
+        <v>3.132889865684715</v>
       </c>
       <c r="D9">
-        <v>3.945330195119406</v>
+        <v>4.203617610664328</v>
       </c>
       <c r="E9">
-        <v>32.8313919453215</v>
+        <v>32.68997402308157</v>
       </c>
       <c r="F9">
-        <v>27.3258308610948</v>
+        <v>25.1878014074334</v>
       </c>
       <c r="G9">
-        <v>38.97515262789278</v>
+        <v>35.12182684044592</v>
       </c>
       <c r="H9">
-        <v>3.618159579369323</v>
+        <v>3.525268660497394</v>
       </c>
       <c r="I9">
-        <v>4.340287731162742</v>
+        <v>4.145079759555334</v>
       </c>
       <c r="J9">
-        <v>11.61095638824925</v>
+        <v>11.21758416964697</v>
       </c>
       <c r="K9">
-        <v>20.88960387259544</v>
+        <v>18.66974114728782</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.65349987702839</v>
       </c>
       <c r="M9">
-        <v>24.71594578796106</v>
+        <v>12.64372040063383</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>23.81044888374146</v>
       </c>
       <c r="P9">
-        <v>11.61374756088634</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.87163242544408</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.861416011756641</v>
+        <v>3.470201546889566</v>
       </c>
       <c r="D10">
-        <v>4.028030150130611</v>
+        <v>4.369966658423179</v>
       </c>
       <c r="E10">
-        <v>34.88776046728119</v>
+        <v>34.70000364211168</v>
       </c>
       <c r="F10">
-        <v>28.97046855888287</v>
+        <v>26.41523319393093</v>
       </c>
       <c r="G10">
-        <v>41.50653297150613</v>
+        <v>37.62933949562141</v>
       </c>
       <c r="H10">
-        <v>4.033708749728985</v>
+        <v>3.911345234312684</v>
       </c>
       <c r="I10">
-        <v>4.729508721109759</v>
+        <v>4.464585512866712</v>
       </c>
       <c r="J10">
-        <v>11.98578359239983</v>
+        <v>11.18344894516919</v>
       </c>
       <c r="K10">
-        <v>21.92189083834855</v>
+        <v>19.30923122751083</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.71531670066409</v>
       </c>
       <c r="M10">
-        <v>26.8234184904905</v>
+        <v>13.68354852732583</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>25.74664560289557</v>
       </c>
       <c r="P10">
-        <v>11.42493660391527</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.78343648135392</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.136825629418864</v>
+        <v>3.674916215561345</v>
       </c>
       <c r="D11">
-        <v>4.242084949886316</v>
+        <v>4.671515847220839</v>
       </c>
       <c r="E11">
-        <v>28.28061504794305</v>
+        <v>28.07119721367162</v>
       </c>
       <c r="F11">
-        <v>28.14577505622463</v>
+        <v>25.38413742917241</v>
       </c>
       <c r="G11">
-        <v>39.85131145973394</v>
+        <v>36.95151900904603</v>
       </c>
       <c r="H11">
-        <v>4.406722854646313</v>
+        <v>4.292638106393845</v>
       </c>
       <c r="I11">
-        <v>4.810087401370674</v>
+        <v>4.527847873442221</v>
       </c>
       <c r="J11">
-        <v>11.57943524240679</v>
+        <v>10.21666403210326</v>
       </c>
       <c r="K11">
-        <v>21.24343333333796</v>
+        <v>18.52129123609269</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.98818173171355</v>
       </c>
       <c r="M11">
-        <v>27.10916979945952</v>
+        <v>13.2800597941858</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>25.94872847345024</v>
       </c>
       <c r="P11">
-        <v>11.53784004597147</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.99092247152022</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.352056867872171</v>
+        <v>3.849212684609944</v>
       </c>
       <c r="D12">
-        <v>4.420333135516568</v>
+        <v>4.892994420656745</v>
       </c>
       <c r="E12">
-        <v>22.31052091536265</v>
+        <v>22.08372036655373</v>
       </c>
       <c r="F12">
-        <v>27.14207559243917</v>
+        <v>24.3576218978866</v>
       </c>
       <c r="G12">
-        <v>37.9953321113157</v>
+        <v>35.66670165647637</v>
       </c>
       <c r="H12">
-        <v>5.227609982987358</v>
+        <v>5.13576595371058</v>
       </c>
       <c r="I12">
-        <v>4.8066986610819</v>
+        <v>4.523348826937607</v>
       </c>
       <c r="J12">
-        <v>11.16908649200382</v>
+        <v>9.619071848315423</v>
       </c>
       <c r="K12">
-        <v>20.49925873377056</v>
+        <v>17.8102719940183</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.43271637038186</v>
       </c>
       <c r="M12">
-        <v>26.94414734217385</v>
+        <v>12.78938997999509</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>25.77208354296216</v>
       </c>
       <c r="P12">
-        <v>11.6873422235617</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.18813634928074</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.499416923529711</v>
+        <v>3.985070999802006</v>
       </c>
       <c r="D13">
-        <v>4.582899462514272</v>
+        <v>5.059223659088074</v>
       </c>
       <c r="E13">
-        <v>16.34622258416303</v>
+        <v>16.09795173104478</v>
       </c>
       <c r="F13">
-        <v>25.86048051642209</v>
+        <v>23.24555118523207</v>
       </c>
       <c r="G13">
-        <v>35.72617966358106</v>
+        <v>33.52302645478854</v>
       </c>
       <c r="H13">
-        <v>6.258099943474931</v>
+        <v>6.188947020608435</v>
       </c>
       <c r="I13">
-        <v>4.738480748606502</v>
+        <v>4.469138982716485</v>
       </c>
       <c r="J13">
-        <v>10.70557359011545</v>
+        <v>9.335346668271759</v>
       </c>
       <c r="K13">
-        <v>19.58786845060898</v>
+        <v>17.08244858149433</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.94740029353591</v>
       </c>
       <c r="M13">
-        <v>26.3994034921284</v>
+        <v>12.17519958190787</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>25.28933299754619</v>
       </c>
       <c r="P13">
-        <v>11.87039094462914</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.37428878639872</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.567473371822057</v>
+        <v>4.061692645205039</v>
       </c>
       <c r="D14">
-        <v>4.691775766255128</v>
+        <v>5.151582712942317</v>
       </c>
       <c r="E14">
-        <v>12.22088160894864</v>
+        <v>11.94519113018703</v>
       </c>
       <c r="F14">
-        <v>24.81412594635012</v>
+        <v>22.40522893388456</v>
       </c>
       <c r="G14">
-        <v>33.90647140260997</v>
+        <v>31.5993991264509</v>
       </c>
       <c r="H14">
-        <v>7.06247786669686</v>
+        <v>7.007042087333247</v>
       </c>
       <c r="I14">
-        <v>4.66272162672569</v>
+        <v>4.410049109459576</v>
       </c>
       <c r="J14">
-        <v>10.351943375603</v>
+        <v>9.257484950061597</v>
       </c>
       <c r="K14">
-        <v>18.85660821701126</v>
+        <v>16.5485328660771</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.62643353288713</v>
       </c>
       <c r="M14">
-        <v>25.83624257496693</v>
+        <v>11.6747600950151</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>24.80289221486171</v>
       </c>
       <c r="P14">
-        <v>12.01384123338607</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.49842279600281</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.555589040695827</v>
+        <v>4.057040590526747</v>
       </c>
       <c r="D15">
-        <v>4.714417971708487</v>
+        <v>5.16261331282206</v>
       </c>
       <c r="E15">
-        <v>11.2216895927654</v>
+        <v>10.93925567884603</v>
       </c>
       <c r="F15">
-        <v>24.48581165852477</v>
+        <v>22.16578561498075</v>
       </c>
       <c r="G15">
-        <v>33.34825713033489</v>
+        <v>30.93578503643986</v>
       </c>
       <c r="H15">
-        <v>7.247037798960912</v>
+        <v>7.195240993343768</v>
       </c>
       <c r="I15">
-        <v>4.629405791001105</v>
+        <v>4.384610459343147</v>
       </c>
       <c r="J15">
-        <v>10.25078870333116</v>
+        <v>9.287113248343907</v>
       </c>
       <c r="K15">
-        <v>18.62909252374547</v>
+        <v>16.39981229662547</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.55093002261573</v>
       </c>
       <c r="M15">
-        <v>25.60990630704945</v>
+        <v>11.51429103615275</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>24.61024891779967</v>
       </c>
       <c r="P15">
-        <v>12.05448425512164</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.52547179493573</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.361683324715958</v>
+        <v>3.872972973123164</v>
       </c>
       <c r="D16">
-        <v>4.64637134678044</v>
+        <v>5.031083363431344</v>
       </c>
       <c r="E16">
-        <v>11.06649402937852</v>
+        <v>10.81915380338785</v>
       </c>
       <c r="F16">
-        <v>23.95478870924619</v>
+        <v>21.95722391454971</v>
       </c>
       <c r="G16">
-        <v>32.55536803713587</v>
+        <v>29.48904060498179</v>
       </c>
       <c r="H16">
-        <v>6.962954250641549</v>
+        <v>6.917865979613149</v>
       </c>
       <c r="I16">
-        <v>4.479989373475319</v>
+        <v>4.267417592432513</v>
       </c>
       <c r="J16">
-        <v>10.16484917995243</v>
+        <v>9.733223362684075</v>
       </c>
       <c r="K16">
-        <v>18.31309291048316</v>
+        <v>16.33621478027237</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.65200690358073</v>
       </c>
       <c r="M16">
-        <v>24.81110721329299</v>
+        <v>11.24415912774475</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>23.93866193644018</v>
       </c>
       <c r="P16">
-        <v>12.08036957784113</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.47590826395908</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.168159127051696</v>
+        <v>3.687774611546677</v>
       </c>
       <c r="D17">
-        <v>4.53441770338526</v>
+        <v>4.885788734841531</v>
       </c>
       <c r="E17">
-        <v>13.192635350012</v>
+        <v>12.98678729464488</v>
       </c>
       <c r="F17">
-        <v>24.12302444636708</v>
+        <v>22.23181994925248</v>
       </c>
       <c r="G17">
-        <v>32.952100594603</v>
+        <v>29.55041027623647</v>
       </c>
       <c r="H17">
-        <v>6.264793716528269</v>
+        <v>6.218639112873324</v>
       </c>
       <c r="I17">
-        <v>4.404396368575652</v>
+        <v>4.207180187343842</v>
       </c>
       <c r="J17">
-        <v>10.29024011170987</v>
+        <v>10.06526835578626</v>
       </c>
       <c r="K17">
-        <v>18.46938799145248</v>
+        <v>16.5600964790378</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.8954771484263</v>
       </c>
       <c r="M17">
-        <v>24.4983863510132</v>
+        <v>11.29492498770719</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>23.67127898046578</v>
       </c>
       <c r="P17">
-        <v>12.02687195188923</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.38252357616226</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.988573822344113</v>
+        <v>3.510702006423215</v>
       </c>
       <c r="D18">
-        <v>4.375337329244928</v>
+        <v>4.706489764594648</v>
       </c>
       <c r="E18">
-        <v>17.80235562264753</v>
+        <v>17.62968055292557</v>
       </c>
       <c r="F18">
-        <v>24.93902530683047</v>
+        <v>23.01859830940414</v>
       </c>
       <c r="G18">
-        <v>34.46915306781557</v>
+        <v>30.80615297499564</v>
       </c>
       <c r="H18">
-        <v>5.21591552704737</v>
+        <v>5.159798440292541</v>
       </c>
       <c r="I18">
-        <v>4.388030501643481</v>
+        <v>4.192505916028863</v>
       </c>
       <c r="J18">
-        <v>10.61938944256884</v>
+        <v>10.44014790681742</v>
       </c>
       <c r="K18">
-        <v>19.07861573597825</v>
+        <v>17.11069150453276</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.33125126765922</v>
       </c>
       <c r="M18">
-        <v>24.59557107364902</v>
+        <v>11.66933512678297</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>23.76181680884015</v>
       </c>
       <c r="P18">
-        <v>11.90224662105324</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.23415891204119</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.793686287776111</v>
+        <v>3.355101305026183</v>
       </c>
       <c r="D19">
-        <v>4.209797776752318</v>
+        <v>4.526750801819734</v>
       </c>
       <c r="E19">
-        <v>24.12050065063222</v>
+        <v>23.96204478089261</v>
       </c>
       <c r="F19">
-        <v>26.13721267652087</v>
+        <v>24.1035664817589</v>
       </c>
       <c r="G19">
-        <v>36.63513347968674</v>
+        <v>32.72985836496585</v>
       </c>
       <c r="H19">
-        <v>4.218254858378172</v>
+        <v>4.141497211448285</v>
       </c>
       <c r="I19">
-        <v>4.429276228724042</v>
+        <v>4.226234672939403</v>
       </c>
       <c r="J19">
-        <v>11.06270928254806</v>
+        <v>10.84145849101161</v>
       </c>
       <c r="K19">
-        <v>19.9324459175525</v>
+        <v>17.82826781394283</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.85454800680293</v>
       </c>
       <c r="M19">
-        <v>24.99408568034746</v>
+        <v>12.22822107118676</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>24.12011961950851</v>
       </c>
       <c r="P19">
-        <v>11.74715694491353</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.06485893983026</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.680104803423038</v>
+        <v>3.349886514283166</v>
       </c>
       <c r="D20">
-        <v>4.016425231885678</v>
+        <v>4.331313430564043</v>
       </c>
       <c r="E20">
-        <v>34.3157974379456</v>
+        <v>34.14307399095605</v>
       </c>
       <c r="F20">
-        <v>28.43107262970448</v>
+        <v>26.06006111771236</v>
       </c>
       <c r="G20">
-        <v>40.65070200809765</v>
+        <v>36.52984196953728</v>
       </c>
       <c r="H20">
-        <v>3.920762073580603</v>
+        <v>3.80790809247195</v>
       </c>
       <c r="I20">
-        <v>4.627640948872078</v>
+        <v>4.38690429570551</v>
       </c>
       <c r="J20">
-        <v>11.84480401807819</v>
+        <v>11.3355100595772</v>
       </c>
       <c r="K20">
-        <v>21.53614120620859</v>
+        <v>19.08212889240228</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.6571185229642</v>
       </c>
       <c r="M20">
-        <v>26.24268030762765</v>
+        <v>13.36370970412819</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>25.23898847356543</v>
       </c>
       <c r="P20">
-        <v>11.48420633888297</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.80963848096332</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.964229511779005</v>
+        <v>3.63312203944274</v>
       </c>
       <c r="D21">
-        <v>4.048028349784129</v>
+        <v>4.462713803306773</v>
       </c>
       <c r="E21">
-        <v>37.17256749163134</v>
+        <v>36.95194194313945</v>
       </c>
       <c r="F21">
-        <v>29.96122037094697</v>
+        <v>26.89310887608209</v>
       </c>
       <c r="G21">
-        <v>43.06946686266303</v>
+        <v>40.22602425148047</v>
       </c>
       <c r="H21">
-        <v>4.294054873478329</v>
+        <v>4.149890494819608</v>
       </c>
       <c r="I21">
-        <v>4.938845442468391</v>
+        <v>4.630218358493211</v>
       </c>
       <c r="J21">
-        <v>12.24221128797846</v>
+        <v>10.47794165950673</v>
       </c>
       <c r="K21">
-        <v>22.53212250650337</v>
+        <v>19.50720987992503</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.66083777111339</v>
       </c>
       <c r="M21">
-        <v>27.90120870950194</v>
+        <v>14.10642384442738</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>26.62539699801809</v>
       </c>
       <c r="P21">
-        <v>11.31117862576315</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.75734673865169</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.180790691262081</v>
+        <v>3.830283674123378</v>
       </c>
       <c r="D22">
-        <v>4.072956745611278</v>
+        <v>4.557226739350158</v>
       </c>
       <c r="E22">
-        <v>38.53123793561451</v>
+        <v>38.27908930259701</v>
       </c>
       <c r="F22">
-        <v>30.89372533017161</v>
+        <v>27.36444918949619</v>
       </c>
       <c r="G22">
-        <v>44.52689967646806</v>
+        <v>42.59754879084735</v>
       </c>
       <c r="H22">
-        <v>4.515263886037016</v>
+        <v>4.351075471859027</v>
       </c>
       <c r="I22">
-        <v>5.133991555042693</v>
+        <v>4.780920702927993</v>
       </c>
       <c r="J22">
-        <v>12.48486032177224</v>
+        <v>9.864283002995036</v>
       </c>
       <c r="K22">
-        <v>23.15103963868009</v>
+        <v>19.75040599553871</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.63938142474621</v>
       </c>
       <c r="M22">
-        <v>28.91899752313101</v>
+        <v>14.56061219632133</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>27.4655943126585</v>
       </c>
       <c r="P22">
-        <v>11.20579724352877</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.73942098471341</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.095031620281308</v>
+        <v>3.731706683394615</v>
       </c>
       <c r="D23">
-        <v>4.056423174452382</v>
+        <v>4.496450502764046</v>
       </c>
       <c r="E23">
-        <v>37.81255912153786</v>
+        <v>37.57821731537134</v>
       </c>
       <c r="F23">
-        <v>30.43552807113079</v>
+        <v>27.19785506051465</v>
       </c>
       <c r="G23">
-        <v>43.81929111208003</v>
+        <v>41.21557730325988</v>
       </c>
       <c r="H23">
-        <v>4.398519985370952</v>
+        <v>4.245674706719823</v>
       </c>
       <c r="I23">
-        <v>5.030180450053868</v>
+        <v>4.700692242062647</v>
       </c>
       <c r="J23">
-        <v>12.36983891804232</v>
+        <v>10.32475707349085</v>
       </c>
       <c r="K23">
-        <v>22.86261026551959</v>
+        <v>19.69172436919496</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.70026088055429</v>
       </c>
       <c r="M23">
-        <v>28.3943717611936</v>
+        <v>14.37536923634491</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>27.05250815507795</v>
       </c>
       <c r="P23">
-        <v>11.25790296774537</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.73692652773499</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.710345042395855</v>
+        <v>3.360214731633779</v>
       </c>
       <c r="D24">
-        <v>3.996436264544461</v>
+        <v>4.306217130252056</v>
       </c>
       <c r="E24">
-        <v>34.97980180267079</v>
+        <v>34.80652302363197</v>
       </c>
       <c r="F24">
-        <v>28.6065511798946</v>
+        <v>26.2244744849245</v>
       </c>
       <c r="G24">
-        <v>40.96952785291501</v>
+        <v>36.80980895137097</v>
       </c>
       <c r="H24">
-        <v>3.947698078033171</v>
+        <v>3.83409154983076</v>
       </c>
       <c r="I24">
-        <v>4.631228335450207</v>
+        <v>4.387484163716834</v>
       </c>
       <c r="J24">
-        <v>11.91249417217517</v>
+        <v>11.40422214968668</v>
       </c>
       <c r="K24">
-        <v>21.68517342154578</v>
+        <v>19.21539130308878</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.75666272796472</v>
       </c>
       <c r="M24">
-        <v>26.29509795928718</v>
+        <v>13.4645718998554</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>25.28740538540501</v>
       </c>
       <c r="P24">
-        <v>11.46591099314585</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.78693393901922</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.265663182280586</v>
+        <v>2.986377182631068</v>
       </c>
       <c r="D25">
-        <v>3.925710954351</v>
+        <v>4.157319747263016</v>
       </c>
       <c r="E25">
-        <v>31.68823284625805</v>
+        <v>31.56416139103509</v>
       </c>
       <c r="F25">
-        <v>26.56773326076862</v>
+        <v>24.58718755675688</v>
       </c>
       <c r="G25">
-        <v>37.76707198271902</v>
+        <v>33.99457937574095</v>
       </c>
       <c r="H25">
-        <v>3.444834037191021</v>
+        <v>3.363302029650662</v>
       </c>
       <c r="I25">
-        <v>4.188629892704892</v>
+        <v>4.022205015233232</v>
       </c>
       <c r="J25">
-        <v>11.42373534909416</v>
+        <v>11.15250893431881</v>
       </c>
       <c r="K25">
-        <v>20.37735929696147</v>
+        <v>18.3117675019142</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.54237194207518</v>
       </c>
       <c r="M25">
-        <v>23.83738863817953</v>
+        <v>12.16136957111471</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>22.99729092733232</v>
       </c>
       <c r="P25">
-        <v>11.69847091192814</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.92437200548593</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
